--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>Scrum Sprint 1 (Phase 1)</t>
   </si>
@@ -70,9 +70,15 @@
     <t>Decidir Features Novas (Todos)</t>
   </si>
   <si>
+    <t>Afonso</t>
+  </si>
+  <si>
     <t>Criar User Storie para a 1a feature (Catarina Crespo)</t>
   </si>
   <si>
+    <t>Luana</t>
+  </si>
+  <si>
     <t>Criar User Storie para a 2a feature (Guilherme Figueira)</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t>Criar Use Case Diagram para a Funcionalidade 1</t>
   </si>
   <si>
-    <t>Afonso</t>
-  </si>
-  <si>
     <t>Criar Use Case Diagram para a Funcionalidade 2</t>
   </si>
   <si>
@@ -115,21 +118,18 @@
     <t>Sprint Backlog - Sprint 3 (Phase 2)</t>
   </si>
   <si>
-    <t>Task Description</t>
+    <t>Adicionar task type a uma tarefa</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Desenvolvimento do código</t>
+    <t>Começar a fazer a user stories tab</t>
   </si>
   <si>
     <t>Sprint Backlog - Sprint 4 (Phase 2)</t>
   </si>
   <si>
-    <t>Luana</t>
-  </si>
-  <si>
     <t>Use case diagram (Afonso)</t>
   </si>
   <si>
@@ -187,10 +187,7 @@
     <t>Relatório</t>
   </si>
   <si>
-    <t>Vídeo de apresentação (guilherme)</t>
-  </si>
-  <si>
-    <t>afonso</t>
+    <t>Vídeo de apresentação (Guilherme)</t>
   </si>
   <si>
     <t>Acabar Feature 1</t>
@@ -268,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border/>
     <border>
       <bottom style="thin">
@@ -307,12 +304,36 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -377,14 +398,29 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -401,26 +437,41 @@
     <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,9 +895,11 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -855,9 +908,11 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="G25" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -873,7 +928,7 @@
     </row>
     <row r="29">
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -905,14 +960,14 @@
         <v>15.0</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -921,14 +976,14 @@
         <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -937,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="19"/>
@@ -949,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="19"/>
@@ -961,14 +1016,14 @@
         <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -977,14 +1032,14 @@
         <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -993,14 +1048,14 @@
         <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -1009,20 +1064,21 @@
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="21" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H42" s="22"/>
     </row>
     <row r="43">
       <c r="C43" s="2"/>
@@ -1030,45 +1086,57 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44">
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="H44" s="26"/>
     </row>
     <row r="45">
-      <c r="C45" s="24">
+      <c r="C45" s="27">
         <v>23.0</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="6" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="28">
+        <v>24.0</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="29" t="s">
         <v>36</v>
       </c>
+      <c r="H46" s="26"/>
     </row>
     <row r="47">
-      <c r="C47" s="25" t="s">
-        <v>37</v>
+      <c r="C47" s="30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -1079,32 +1147,32 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49">
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" s="28">
+      <c r="C50" s="33">
         <v>24.0</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="31" t="s">
+      <c r="F50" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1113,12 +1181,12 @@
         <f t="shared" ref="C51:C70" si="3">C50+1</f>
         <v>25</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="32" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="34" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1127,12 +1195,12 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="29" t="s">
+      <c r="F52" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1141,12 +1209,12 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="29" t="s">
+      <c r="F53" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1155,12 +1223,12 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="29" t="s">
+      <c r="F54" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="34" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1169,12 +1237,12 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="29" t="s">
+      <c r="F55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="34" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1183,12 +1251,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D56" s="29"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1197,12 +1265,12 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="D57" s="29"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="29" t="s">
+      <c r="F57" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="34" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1211,12 +1279,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="D58" s="29"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="29" t="s">
+      <c r="F58" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="34" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1225,12 +1293,12 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="29" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1239,12 +1307,12 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="33" t="s">
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="38" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1253,12 +1321,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="33" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="38" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1269,10 +1337,10 @@
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="34" t="s">
+      <c r="G62" s="39" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1281,103 +1349,109 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="29" t="s">
+      <c r="D63" s="34"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="64">
-      <c r="C64" s="35">
+      <c r="C64" s="41">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="29" t="s">
+      <c r="F64" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="65">
-      <c r="C65" s="35">
+      <c r="C65" s="41">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="29" t="s">
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66">
-      <c r="C66" s="35">
+      <c r="C66" s="41">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="29" t="s">
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67">
-      <c r="C67" s="35">
+      <c r="C67" s="41">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="32" t="s">
+      <c r="F67" s="43"/>
+      <c r="G67" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68">
-      <c r="C68" s="35">
+      <c r="C68" s="41">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="32" t="s">
+      <c r="F68" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69">
-      <c r="C69" s="35">
+      <c r="C69" s="41">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="32" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="70">
-      <c r="C70" s="35">
+      <c r="C70" s="41">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="32" t="s">
-        <v>61</v>
+      <c r="F70" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1459,7 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C47:G47"/>
   </mergeCells>
   <drawing r:id="rId1"/>
